--- a/trend_results/Rivers/PongaroaatusPongaroaSTP_98e87656fc.xlsx
+++ b/trend_results/Rivers/PongaroaatusPongaroaSTP_98e87656fc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.31919313040914</v>
+        <v>0.68080686959086</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9931727725698311</v>
+        <v>0.0068272274301689</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.71891396510632</v>
+        <v>0.28108603489368</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.376112696437167</v>
+        <v>0.623887303562833</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2903,6 +2903,912 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Pongaroa at u/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.996805313492263</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.126760563380282</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.443661971830986</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0249260691537762</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.0069522241046424</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0452569858121941</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6.23151728844404</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1870622</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5506602</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Pongaroa at u/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.002175770290739</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.854304635761589</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.0501717032967036</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.09532185935924201</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.0228135334546792</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.488051588489334</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely increasing</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1870622</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5506602</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Pongaroa at u/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.36908035461013</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.190789473684211</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.151315789473684</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0001661737943585</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1870622</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5506602</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Pongaroa at u/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.722769321264448</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0131578947368421</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.7697368421052631</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>310</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-4.00799962305441</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-15.8543676294467</v>
+      </c>
+      <c r="M31" t="n">
+        <v>6.46313121203179</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-1.2929031042111</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1870622</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5506602</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Pongaroa at u/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.413691726204407</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.486111111111111</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="I32" t="n">
+        <v>16</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0102542759295991</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.19070307907262e-05</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1870622</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5506602</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Pongaroa at u/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.852047216119497</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.496644295302013</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0050171703296704</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.0024985549962841</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0161479214332172</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.0617118121730682</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Likely increasing</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1870622</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5506602</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Pongaroa at u/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.131489887196911</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.105263157894737</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.539473684210526</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0006138655462184001</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0002504308162733</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0015003423094477</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.22773109243697</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1870622</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5506602</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Pongaroa at u/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.318555963348939</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.572368421052632</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0016189055574497</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.004005434749162</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0066858860863482</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.323781111489941</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1870622</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5506602</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Pongaroa at u/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0511268469576936</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.006578947368421</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.539473684210526</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.0425</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0006732718894009</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0016036178317674</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.58416915153158</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1870622</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5506602</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Pongaroa at u/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.601241010778377</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.973509933774834</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0435515143264257</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.25063972477283</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.209302499156932</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.345646939098617</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1870622</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5506602</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/PongaroaatusPongaroaSTP_98e87656fc.xlsx
+++ b/trend_results/Rivers/PongaroaatusPongaroaSTP_98e87656fc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.893459540326499</v>
+        <v>0.0043082332687259</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2</v>
+        <v>0.173076923076923</v>
       </c>
       <c r="H2" t="n">
-        <v>0.436363636363636</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="K2" t="n">
-        <v>0.104357142857143</v>
+        <v>-0.0918881009341536</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0.331890186381065</v>
       </c>
       <c r="M2" t="n">
-        <v>0.408627390740912</v>
+        <v>-0.0057718104414512</v>
       </c>
       <c r="N2" t="n">
-        <v>17.3928571428571</v>
+        <v>-16.7069274425734</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.68080686959086</v>
+        <v>0.711198740103739</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.890909090909091</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.17</v>
+        <v>10.235</v>
       </c>
       <c r="K3" t="n">
-        <v>0.016617379435851</v>
+        <v>0.0327333831217324</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0897347295166858</v>
+        <v>-0.08817525361216599</v>
       </c>
       <c r="M3" t="n">
-        <v>0.109326575451768</v>
+        <v>0.111701088961262</v>
       </c>
       <c r="N3" t="n">
-        <v>0.163396061316136</v>
+        <v>0.319818105732608</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -751,35 +751,35 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.325225932408182</v>
+        <v>0.0732919369747992</v>
       </c>
       <c r="G4" t="n">
-        <v>0.163636363636364</v>
+        <v>0.127272727272727</v>
       </c>
       <c r="H4" t="n">
-        <v>0.309090909090909</v>
+        <v>0.290909090909091</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.0006324675324675001</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.000594094297619</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0011482143276779</v>
+        <v>0.0014938566952285</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>7.02741702741703</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -842,35 +842,35 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.633546574196604</v>
+        <v>0.526050132230838</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0363636363636364</v>
+        <v>0.0545454545454545</v>
       </c>
       <c r="H5" t="n">
-        <v>0.872727272727273</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="I5" t="n">
         <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="K5" t="n">
-        <v>-10.4357142857143</v>
+        <v>-2.44969818913481</v>
       </c>
       <c r="L5" t="n">
-        <v>-80.4930097985967</v>
+        <v>-47.0441853361609</v>
       </c>
       <c r="M5" t="n">
-        <v>48.1415451680661</v>
+        <v>45.6141679627097</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.36635944700461</v>
+        <v>-0.897325344005425</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -933,35 +933,35 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.755808064032566</v>
+        <v>0.451368500728732</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4</v>
+        <v>0.384615384615385</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7</v>
+        <v>0.634615384615385</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0123631877195307</v>
+        <v>0.0138578737219473</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0002042147222756</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0017413255727434</v>
+        <v>-0.0004633069725003</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.0009205827549339999</v>
       </c>
       <c r="N6" t="n">
-        <v>-1.65179666367923</v>
+        <v>0</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.467465338555614</v>
+        <v>0.336490558699003</v>
       </c>
       <c r="G7" t="n">
-        <v>0.290909090909091</v>
+        <v>0.272727272727273</v>
       </c>
       <c r="H7" t="n">
         <v>0.145454545454545</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0002565687000246</v>
+        <v>0.0003320257439996</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.303672699281537</v>
+        <v>0.239980198255132</v>
       </c>
       <c r="G8" t="n">
         <v>0.272727272727273</v>
       </c>
       <c r="H8" t="n">
-        <v>0.672727272727273</v>
+        <v>0.636363636363636</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>-0.0023114935060803</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0059882575462152</v>
+        <v>0.0187553295924657</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.0068272274301689</v>
+        <v>0.046347901278906</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.781818181818182</v>
+        <v>0.740740740740741</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>8.130000000000001</v>
+        <v>8.095000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.059632653061225</v>
+        <v>-0.0455480365223012</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0979146900865606</v>
+        <v>-0.0681785123987665</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0298628443732066</v>
+        <v>-0.0072343590799689</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.733488967542743</v>
+        <v>-0.562668764945042</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1293,17 +1293,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.284669856735076</v>
+        <v>0.052188343299878</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0909090909090909</v>
+        <v>0.0727272727272727</v>
       </c>
       <c r="H10" t="n">
-        <v>0.490909090909091</v>
+        <v>0.436363636363636</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1312,16 +1312,16 @@
         <v>0.08</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.0098185483870967</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0030116159213036</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0180937429129922</v>
+        <v>0.0315814452367965</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>12.273185483871</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.987940129502766</v>
+        <v>0.270875953312901</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0181818181818182</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6181818181818181</v>
+        <v>0.709090909090909</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="K11" t="n">
-        <v>-2.00686813186813</v>
+        <v>0.0127888655462185</v>
       </c>
       <c r="L11" t="n">
-        <v>-6.52232142857143</v>
+        <v>-0.0182908333860567</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.573390894819466</v>
+        <v>0.0470595011264678</v>
       </c>
       <c r="N11" t="n">
-        <v>-25.0858516483516</v>
+        <v>2.55777310924369</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.6115241885202281</v>
+        <v>0.156335116954973</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.745454545454545</v>
+        <v>0.781818181818182</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.5</v>
+        <v>0.045</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0057339089481946</v>
+        <v>0.0019814647377938</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0447244897959184</v>
+        <v>-0.001522667178924</v>
       </c>
       <c r="M12" t="n">
-        <v>0.028244660194983</v>
+        <v>0.0074513106588408</v>
       </c>
       <c r="N12" t="n">
-        <v>-1.14678178963893</v>
+        <v>4.40325497287523</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.743348481395365</v>
+        <v>0.173631212243791</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8</v>
+        <v>0.981818181818182</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.046</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0021854899027673</v>
+        <v>1.24047169811321</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0087547040390483</v>
+        <v>-0.230483653590995</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0026438780030988</v>
+        <v>4.78893133782554</v>
       </c>
       <c r="N13" t="n">
-        <v>-4.75106500601606</v>
+        <v>12.5808488652455</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9880202002684439</v>
+        <v>0.867588167424438</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.114285714285714</v>
       </c>
       <c r="H14" t="n">
-        <v>0.981818181818182</v>
+        <v>0.514285714285714</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>9.859999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="K14" t="n">
-        <v>-2.95276424442609</v>
+        <v>0.0133791208791209</v>
       </c>
       <c r="L14" t="n">
-        <v>-8.918614446800071</v>
+        <v>-0.00517451021484</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.523677216502169</v>
+        <v>0.0464582645574836</v>
       </c>
       <c r="N14" t="n">
-        <v>-29.9468990306906</v>
+        <v>3.82260596546311</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.999010471130065</v>
+        <v>0.358379154828262</v>
       </c>
       <c r="G15" t="n">
-        <v>0.111111111111111</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5</v>
+        <v>0.831858407079646</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4</v>
+        <v>10.17</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0462548895024735</v>
+        <v>-0.00733245198487</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0199954760861843</v>
+        <v>-0.0429649330728254</v>
       </c>
       <c r="M15" t="n">
-        <v>0.08321702440975209</v>
+        <v>0.0294443911092267</v>
       </c>
       <c r="N15" t="n">
-        <v>11.5637223756184</v>
+        <v>-0.0720988395759098</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0471102942785342</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.12280701754386</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>0.28108603489368</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.850877192982456</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
       <c r="J16" t="n">
-        <v>10.18</v>
+        <v>0.008</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0116772216958363</v>
+        <v>0.0001850303951367</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0456256899232092</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0173018758493173</v>
+        <v>0.0004700772200772</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.11470748227737</v>
+        <v>2.31287993920972</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.0470076127331619</v>
+        <v>0.623976434817871</v>
       </c>
       <c r="G17" t="n">
-        <v>0.184210526315789</v>
+        <v>0.0263157894736842</v>
       </c>
       <c r="H17" t="n">
-        <v>0.157894736842105</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0075</v>
+        <v>285</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001830458462761</v>
+        <v>-2.87008882815169</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-18.2693725414965</v>
       </c>
       <c r="M17" t="n">
-        <v>0.000499360800508</v>
+        <v>12.1715999968802</v>
       </c>
       <c r="N17" t="n">
-        <v>2.44061128368179</v>
+        <v>-1.00704871163217</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.276693328893106</v>
+        <v>0.0045215174079729</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0175438596491228</v>
+        <v>0.514018691588785</v>
       </c>
       <c r="H18" t="n">
-        <v>0.780701754385965</v>
+        <v>0.560747663551402</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J18" t="n">
-        <v>286.5</v>
+        <v>0.008781357832593701</v>
       </c>
       <c r="K18" t="n">
-        <v>5.01717032967033</v>
+        <v>0.0004580845143853</v>
       </c>
       <c r="L18" t="n">
-        <v>-9.627532401157691</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>24.1840107564973</v>
+        <v>0.0011443344376476</v>
       </c>
       <c r="N18" t="n">
-        <v>1.75119383234566</v>
+        <v>5.21655674575881</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,46 +2101,46 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0217147207140057</v>
+        <v>0.0210594205757536</v>
       </c>
       <c r="G19" t="n">
-        <v>0.547169811320755</v>
+        <v>0.254385964912281</v>
       </c>
       <c r="H19" t="n">
-        <v>0.528301886792453</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="I19" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0074578547204138</v>
+        <v>0.003</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0001597952696084</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.00080450912383</v>
+        <v>0.0002496582365003</v>
       </c>
       <c r="N19" t="n">
-        <v>2.14264390497036</v>
+        <v>0</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2207,31 +2207,31 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.279092324711329</v>
+        <v>0.0014646471062618</v>
       </c>
       <c r="G20" t="n">
-        <v>0.228070175438596</v>
+        <v>0.298245614035088</v>
       </c>
       <c r="H20" t="n">
-        <v>0.114035087719298</v>
+        <v>0.614035087719298</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.003</v>
+        <v>0.0475</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.0012474594776182</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.0047799643945458</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2.62623047919623</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2294,35 +2294,35 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.009248207383824999</v>
+        <v>0.033843830155458</v>
       </c>
       <c r="G21" t="n">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.614035087719298</v>
+        <v>0.504504504504504</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.02575</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>-0.0124829118250173</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0259676205698289</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0017213143464954</v>
+        <v>-0.0014708732955955</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>-0.153352725123062</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Owha_1</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,7 +2370,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2385,35 +2381,35 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.623887303562833</v>
+        <v>0.0002589401245766</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="H22" t="n">
-        <v>0.531531531531532</v>
+        <v>0.473684210526316</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>8.130000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="K22" t="n">
-        <v>0.001999208329838</v>
+        <v>0.0049538602846498</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0101538201711207</v>
+        <v>0.0018938646942355</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0160533406150527</v>
+        <v>0.009762332056305599</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0245905083620917</v>
+        <v>8.256433807749749</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Owha_1</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2472,35 +2472,35 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.000998314823259</v>
+        <v>0.0094407259817947</v>
       </c>
       <c r="G23" t="n">
-        <v>0.105263157894737</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5350877192982459</v>
+        <v>0.614035087719298</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.043</v>
+        <v>0.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0030118065967016</v>
+        <v>0.0117322425334571</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0009974176139956</v>
+        <v>0.0034839351251584</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0052927430867057</v>
+        <v>0.0250587763750492</v>
       </c>
       <c r="N23" t="n">
-        <v>7.00420138767825</v>
+        <v>2.34644850669143</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2552,46 +2552,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.68183300733178</v>
+        <v>0.435785140515918</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0175438596491228</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.508771929824561</v>
+        <v>0.640350877192982</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>13.5</v>
+        <v>0.0465</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.0001224849094567</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.776097192275379</v>
+        <v>-0.0011101823708206</v>
       </c>
       <c r="M24" t="n">
-        <v>0.250858516483516</v>
+        <v>0.0017772876871081</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>0.263408407433851</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0576917867502357</v>
+        <v>0.771760274694981</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.657894736842105</v>
+        <v>0.973684210526316</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.495</v>
+        <v>17.7</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0070233704851931</v>
+        <v>-0.155346840827307</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-0.597329212003825</v>
       </c>
       <c r="M25" t="n">
-        <v>0.018355350128109</v>
+        <v>0.141781882181091</v>
       </c>
       <c r="N25" t="n">
-        <v>1.41886272428144</v>
+        <v>-0.877665767385914</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,11 +2734,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.203738512705425</v>
+        <v>0.673796236566056</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0857142857142857</v>
       </c>
       <c r="H26" t="n">
-        <v>0.614035087719298</v>
+        <v>0.471428571428571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0455</v>
+        <v>0.4</v>
       </c>
       <c r="K26" t="n">
-        <v>0.000748974709501</v>
+        <v>0.0033234758871701</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0008750036545035</v>
+        <v>-0.0100005506259349</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0020873937609295</v>
+        <v>0.0199866037926137</v>
       </c>
       <c r="N26" t="n">
-        <v>1.64609826263961</v>
+        <v>0.830868971792537</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.94815397891283</v>
+        <v>0.0040150016997729</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.982456140350877</v>
+        <v>0.84</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>16.9</v>
+        <v>10.29</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.278797583207527</v>
+        <v>-0.0462734936361871</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.692146280811739</v>
+        <v>-0.081207845608506</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.0133404587783549</v>
+        <v>-0.0138162259496281</v>
       </c>
       <c r="N27" t="n">
-        <v>-1.64968984146466</v>
+        <v>-0.449693815706385</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2927,35 +2927,35 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.996805313492263</v>
+        <v>0.253147256907241</v>
       </c>
       <c r="G28" t="n">
-        <v>0.126760563380282</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="H28" t="n">
-        <v>0.443661971830986</v>
+        <v>0.144736842105263</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0249260691537762</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0069522241046424</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0452569858121941</v>
+        <v>0.0002490944459654</v>
       </c>
       <c r="N28" t="n">
-        <v>6.23151728844404</v>
+        <v>0</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,14 +3007,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.002175770290739</v>
+        <v>0.563920666733273</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0197368421052632</v>
       </c>
       <c r="H29" t="n">
-        <v>0.854304635761589</v>
+        <v>0.756578947368421</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>10.28</v>
+        <v>297.5</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.0501717032967036</v>
+        <v>-0.718609476811317</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.09532185935924201</v>
+        <v>-11.143897091013</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.0228135334546792</v>
+        <v>9.27562347308727</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.488051588489334</v>
+        <v>-0.24154940397019</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,19 +3113,19 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.36908035461013</v>
+        <v>0.476743579006025</v>
       </c>
       <c r="G30" t="n">
-        <v>0.190789473684211</v>
+        <v>0.465277777777778</v>
       </c>
       <c r="H30" t="n">
-        <v>0.151315789473684</v>
+        <v>0.583333333333333</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J30" t="n">
-        <v>0.008</v>
+        <v>0.0108382192999467</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0001661737943585</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -3189,14 +3189,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3204,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.722769321264448</v>
+        <v>0.114490543401897</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0131578947368421</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.7697368421052631</v>
+        <v>0.47972972972973</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>310</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>-4.00799962305441</v>
+        <v>-0.0056415670538602</v>
       </c>
       <c r="L31" t="n">
-        <v>-15.8543676294467</v>
+        <v>-0.0124829118250173</v>
       </c>
       <c r="M31" t="n">
-        <v>6.46313121203179</v>
+        <v>0.0018512823502301</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.2929031042111</v>
+        <v>-0.0693067205633931</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3266,11 +3266,7 @@
           <t>Owha_1</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>E. coli/100 mL</t>
-        </is>
-      </c>
+      <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3280,46 +3276,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.413691726204407</v>
+        <v>0.0147542060183276</v>
       </c>
       <c r="G32" t="n">
-        <v>0.486111111111111</v>
+        <v>0.0855263157894737</v>
       </c>
       <c r="H32" t="n">
-        <v>0.5625</v>
+        <v>0.559210526315789</v>
       </c>
       <c r="I32" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0102542759295991</v>
+        <v>0.05</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.001497949419002</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.0003424020899212</v>
       </c>
       <c r="M32" t="n">
-        <v>1.19070307907262e-05</v>
+        <v>0.0031765488367637</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>2.9958988380041</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3324,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3355,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3371,7 +3367,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3386,31 +3382,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.852047216119497</v>
+        <v>0.0147304197497096</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.496644295302013</v>
+        <v>0.552631578947368</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>8.130000000000001</v>
+        <v>0.495</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0050171703296704</v>
+        <v>0.0066681880419899</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0024985549962841</v>
+        <v>0.0017631917547917</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0161479214332172</v>
+        <v>0.0123339004912997</v>
       </c>
       <c r="N33" t="n">
-        <v>0.0617118121730682</v>
+        <v>1.34710869535151</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3415,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,7 +3444,11 @@
           <t>Owha_1</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3473,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.131489887196911</v>
+        <v>0.0009508854678234</v>
       </c>
       <c r="G34" t="n">
-        <v>0.105263157894737</v>
+        <v>0.006578947368421</v>
       </c>
       <c r="H34" t="n">
-        <v>0.539473684210526</v>
+        <v>0.532894736842105</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.05</v>
+        <v>0.0425</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0006138655462184001</v>
+        <v>0.0014217594394706</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0002504308162733</v>
+        <v>0.0006136018338455</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0015003423094477</v>
+        <v>0.0025351032486383</v>
       </c>
       <c r="N34" t="n">
-        <v>1.22773109243697</v>
+        <v>3.34531632816615</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3564,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.318555963348939</v>
+        <v>0.274834708404802</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.572368421052632</v>
+        <v>0.967105263157895</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.5</v>
+        <v>13.85</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0016189055574497</v>
+        <v>0.0699712643678161</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.004005434749162</v>
+        <v>-0.15116957908447</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0066858860863482</v>
+        <v>0.497801921999354</v>
       </c>
       <c r="N35" t="n">
-        <v>0.323781111489941</v>
+        <v>0.505207684966181</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -3640,46 +3640,46 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.0511268469576936</v>
+        <v>0.414954764731929</v>
       </c>
       <c r="G36" t="n">
-        <v>0.006578947368421</v>
+        <v>0.168604651162791</v>
       </c>
       <c r="H36" t="n">
-        <v>0.539473684210526</v>
+        <v>0.162790697674419</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>0.0425</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0006732718894009</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>-5.04030714533499e-05</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0016036178317674</v>
+        <v>0.0001428598261574</v>
       </c>
       <c r="N36" t="n">
-        <v>1.58416915153158</v>
+        <v>0</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3719,7 +3719,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3731,14 +3731,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3746,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.601241010778377</v>
+        <v>0.77483061434307</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.0174418604651163</v>
       </c>
       <c r="H37" t="n">
-        <v>0.973509933774834</v>
+        <v>0.767441860465116</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>12.6</v>
+        <v>302.5</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0435515143264257</v>
+        <v>-3.66670153602549</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.25063972477283</v>
+        <v>-12.3474643377723</v>
       </c>
       <c r="M37" t="n">
-        <v>0.209302499156932</v>
+        <v>3.96608291282738</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.345646939098617</v>
+        <v>-1.21213273918198</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3809,6 +3809,279 @@
         </is>
       </c>
       <c r="W37" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Pongaroa at u/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>20</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0627321567378043</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.49390243902439</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.554878048780488</v>
+      </c>
+      <c r="I38" t="n">
+        <v>18</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.0102542759295991</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0001918961350767</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1870622</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5506602</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Pongaroa at u/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>20</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0532248118441597</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.104651162790698</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.552325581395349</v>
+      </c>
+      <c r="I39" t="n">
+        <v>4</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0007201558559268</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0016117884464341</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.44031171185372</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1870622</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5506602</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Pongaroa at u/s Pongaroa STP</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>20</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.463658792148006</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.970760233918129</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0070679081963698</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.167021491833191</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.251988919570061</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.0508482604055382</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1870622</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5506602</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Puketoi ki Tai</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Owahanga</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Owha_1</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/PongaroaatusPongaroaSTP_98e87656fc.xlsx
+++ b/trend_results/Rivers/PongaroaatusPongaroaSTP_98e87656fc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="61">
   <si>
     <t>site name</t>
   </si>
@@ -127,6 +127,9 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
@@ -136,34 +139,37 @@
     <t>Exceptionally unlikely improving</t>
   </si>
   <si>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
     <t>Likely increasing</t>
   </si>
   <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
     <t>Very unlikely improving</t>
   </si>
   <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
     <t>Extremely unlikely increasing</t>
   </si>
   <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
+    <t>Unlikely increasing</t>
   </si>
   <si>
     <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -548,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W40"/>
+  <dimension ref="A1:W44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -642,37 +648,37 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.0043082332687259</v>
+        <v>0.001072041539117</v>
       </c>
       <c r="G2">
-        <v>0.173076923076923</v>
+        <v>0.177777777777778</v>
       </c>
       <c r="H2">
-        <v>0.538461538461538</v>
+        <v>0.688888888888889</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2">
-        <v>0.55</v>
+        <v>0.3</v>
       </c>
       <c r="K2">
-        <v>-0.0918881009341536</v>
+        <v>-0.168955123716153</v>
       </c>
       <c r="L2">
-        <v>-0.331890186381065</v>
+        <v>-0.418652739104905</v>
       </c>
       <c r="M2">
-        <v>-0.0057718104414512</v>
+        <v>-0.0442489593040821</v>
       </c>
       <c r="N2">
-        <v>-16.7069274425734</v>
+        <v>-56.318374572051</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q2">
         <v>1870622</v>
@@ -681,19 +687,19 @@
         <v>5506602</v>
       </c>
       <c r="S2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -713,7 +719,7 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.711198740103739</v>
+        <v>0.952606590516107</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -725,25 +731,25 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.235</v>
+        <v>10.28</v>
       </c>
       <c r="K3">
-        <v>0.0327333831217324</v>
+        <v>0.0822329348652531</v>
       </c>
       <c r="L3">
-        <v>-0.08817525361216599</v>
+        <v>0.008771861855758199</v>
       </c>
       <c r="M3">
-        <v>0.111701088961262</v>
+        <v>0.167035662681272</v>
       </c>
       <c r="N3">
-        <v>0.319818105732608</v>
+        <v>0.799931273008298</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q3">
         <v>1870622</v>
@@ -752,19 +758,19 @@
         <v>5506602</v>
       </c>
       <c r="S3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -781,40 +787,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4">
-        <v>0.0732919369747992</v>
+        <v>0.439161355652902</v>
       </c>
       <c r="G4">
-        <v>0.127272727272727</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.290909090909091</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.008999999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="K4">
-        <v>0.0006324675324675001</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>-0.0006369970004064</v>
       </c>
       <c r="M4">
-        <v>0.0014938566952285</v>
+        <v>0.0008027472527472</v>
       </c>
       <c r="N4">
-        <v>7.02741702741703</v>
+        <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q4">
         <v>1870622</v>
@@ -823,19 +829,19 @@
         <v>5506602</v>
       </c>
       <c r="S4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -849,13 +855,13 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5">
-        <v>0.526050132230838</v>
+        <v>0.760249938906523</v>
       </c>
       <c r="G5">
         <v>0.0545454545454545</v>
@@ -867,25 +873,25 @@
         <v>2</v>
       </c>
       <c r="J5">
-        <v>273</v>
+        <v>273.2</v>
       </c>
       <c r="K5">
-        <v>-2.44969818913481</v>
+        <v>-24.3051152073733</v>
       </c>
       <c r="L5">
-        <v>-47.0441853361609</v>
+        <v>-61.1127633585097</v>
       </c>
       <c r="M5">
-        <v>45.6141679627097</v>
+        <v>11.7294882307926</v>
       </c>
       <c r="N5">
-        <v>-0.897325344005425</v>
+        <v>-8.89645505394336</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q5">
         <v>1870622</v>
@@ -894,19 +900,19 @@
         <v>5506602</v>
       </c>
       <c r="S5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -923,40 +929,40 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6">
-        <v>0.451368500728732</v>
+        <v>0.770890973569317</v>
       </c>
       <c r="G6">
-        <v>0.384615384615385</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.634615384615385</v>
+        <v>0.9807692307692309</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0138578737219473</v>
+        <v>0.0109742212552123</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>-0.0006983588887338</v>
       </c>
       <c r="L6">
-        <v>-0.0004633069725003</v>
+        <v>-0.0022496563831426</v>
       </c>
       <c r="M6">
-        <v>0.0009205827549339999</v>
+        <v>0.0010608205931448</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>-6.36363047995029</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q6">
         <v>1870622</v>
@@ -965,19 +971,19 @@
         <v>5506602</v>
       </c>
       <c r="S6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -994,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7">
-        <v>0.336490558699003</v>
+        <v>0.933171160473419</v>
       </c>
       <c r="G7">
-        <v>0.272727272727273</v>
+        <v>0.327272727272727</v>
       </c>
       <c r="H7">
         <v>0.145454545454545</v>
@@ -1009,25 +1015,25 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>-0.0006067275747508</v>
       </c>
       <c r="M7">
-        <v>0.0003320257439996</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q7">
         <v>1870622</v>
@@ -1036,19 +1042,19 @@
         <v>5506602</v>
       </c>
       <c r="S7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1062,43 +1068,43 @@
         <v>5</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F8">
-        <v>0.239980198255132</v>
+        <v>0.307510653052337</v>
       </c>
       <c r="G8">
-        <v>0.272727272727273</v>
+        <v>0.290909090909091</v>
       </c>
       <c r="H8">
-        <v>0.636363636363636</v>
+        <v>0.6</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.056</v>
+        <v>0.029</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>-0.0023114935060803</v>
+        <v>-0.0001500998947221</v>
       </c>
       <c r="M8">
-        <v>0.0187553295924657</v>
+        <v>0.0036558837193735</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q8">
         <v>1870622</v>
@@ -1107,19 +1113,19 @@
         <v>5506602</v>
       </c>
       <c r="S8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1133,43 +1139,43 @@
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.046347901278906</v>
+        <v>0.84677771342087</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.740740740740741</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.095000000000001</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="K9">
-        <v>-0.0455480365223012</v>
+        <v>0.0195669642857144</v>
       </c>
       <c r="L9">
-        <v>-0.0681785123987665</v>
+        <v>-0.0161903459676347</v>
       </c>
       <c r="M9">
-        <v>-0.0072343590799689</v>
+        <v>0.0502772507964067</v>
       </c>
       <c r="N9">
-        <v>-0.562668764945042</v>
+        <v>0.240972466572838</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q9">
         <v>1870622</v>
@@ -1178,16 +1184,16 @@
         <v>5506602</v>
       </c>
       <c r="S9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1204,40 +1210,40 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F10">
-        <v>0.052188343299878</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.0727272727272727</v>
+        <v>0.127272727272727</v>
       </c>
       <c r="H10">
-        <v>0.436363636363636</v>
+        <v>0.381818181818182</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="K10">
-        <v>0.0098185483870967</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>-0.0070557127127266</v>
       </c>
       <c r="M10">
-        <v>0.0315814452367965</v>
+        <v>0.009371404332014201</v>
       </c>
       <c r="N10">
-        <v>12.273185483871</v>
+        <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q10">
         <v>1870622</v>
@@ -1246,19 +1252,19 @@
         <v>5506602</v>
       </c>
       <c r="S10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1278,37 +1284,37 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.270875953312901</v>
+        <v>0.930803964983526</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.709090909090909</v>
+        <v>0.690909090909091</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="K11">
-        <v>0.0127888655462185</v>
+        <v>-0.0250171232876713</v>
       </c>
       <c r="L11">
-        <v>-0.0182908333860567</v>
+        <v>-0.0563820755600227</v>
       </c>
       <c r="M11">
-        <v>0.0470595011264678</v>
+        <v>0.0017889413033693</v>
       </c>
       <c r="N11">
-        <v>2.55777310924369</v>
+        <v>-5.10553536483087</v>
       </c>
       <c r="O11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q11">
         <v>1870622</v>
@@ -1317,19 +1323,19 @@
         <v>5506602</v>
       </c>
       <c r="S11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1343,43 +1349,43 @@
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.156335116954973</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.781818181818182</v>
+        <v>0.745454545454545</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.045</v>
+        <v>0.046</v>
       </c>
       <c r="K12">
-        <v>0.0019814647377938</v>
+        <v>0.0005010288065843</v>
       </c>
       <c r="L12">
-        <v>-0.001522667178924</v>
+        <v>-0.0045656484568259</v>
       </c>
       <c r="M12">
-        <v>0.0074513106588408</v>
+        <v>0.0058911345550147</v>
       </c>
       <c r="N12">
-        <v>4.40325497287523</v>
+        <v>1.08919305779209</v>
       </c>
       <c r="O12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q12">
         <v>1870622</v>
@@ -1388,19 +1394,19 @@
         <v>5506602</v>
       </c>
       <c r="S12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1420,7 +1426,7 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.173631212243791</v>
+        <v>0.31919313040914</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1435,22 +1441,22 @@
         <v>9.859999999999999</v>
       </c>
       <c r="K13">
-        <v>1.24047169811321</v>
+        <v>0.245546218487395</v>
       </c>
       <c r="L13">
-        <v>-0.230483653590995</v>
+        <v>-0.444858092245783</v>
       </c>
       <c r="M13">
-        <v>4.78893133782554</v>
+        <v>2.94508253136045</v>
       </c>
       <c r="N13">
-        <v>12.5808488652455</v>
+        <v>2.49032675950705</v>
       </c>
       <c r="O13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q13">
         <v>1870622</v>
@@ -1459,19 +1465,19 @@
         <v>5506602</v>
       </c>
       <c r="S13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1488,40 +1494,40 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F14">
-        <v>0.867588167424438</v>
+        <v>0.616578321814355</v>
       </c>
       <c r="G14">
-        <v>0.114285714285714</v>
+        <v>0.121212121212121</v>
       </c>
       <c r="H14">
-        <v>0.514285714285714</v>
+        <v>0.505050505050505</v>
       </c>
       <c r="I14">
         <v>3</v>
       </c>
       <c r="J14">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="K14">
-        <v>0.0133791208791209</v>
+        <v>3.48136126154137E-18</v>
       </c>
       <c r="L14">
-        <v>-0.00517451021484</v>
+        <v>-0.0100912866280051</v>
       </c>
       <c r="M14">
-        <v>0.0464582645574836</v>
+        <v>0.0295518446474996</v>
       </c>
       <c r="N14">
-        <v>3.82260596546311</v>
+        <v>1.16045375384712E-15</v>
       </c>
       <c r="O14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q14">
         <v>1870622</v>
@@ -1530,19 +1536,19 @@
         <v>5506602</v>
       </c>
       <c r="S14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1562,37 +1568,37 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.358379154828262</v>
+        <v>0.566463881759187</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.831858407079646</v>
+        <v>0.849557522123894</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.17</v>
+        <v>10.21</v>
       </c>
       <c r="K15">
-        <v>-0.00733245198487</v>
+        <v>0.0039142437797035</v>
       </c>
       <c r="L15">
-        <v>-0.0429649330728254</v>
+        <v>-0.035062008246523</v>
       </c>
       <c r="M15">
-        <v>0.0294443911092267</v>
+        <v>0.0379721968525806</v>
       </c>
       <c r="N15">
-        <v>-0.0720988395759098</v>
+        <v>0.0383373533761369</v>
       </c>
       <c r="O15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q15">
         <v>1870622</v>
@@ -1601,19 +1607,19 @@
         <v>5506602</v>
       </c>
       <c r="S15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1630,13 +1636,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16">
-        <v>0.0471102942785342</v>
+        <v>0.449057845844673</v>
       </c>
       <c r="G16">
-        <v>0.12280701754386</v>
+        <v>0.140350877192982</v>
       </c>
       <c r="H16">
         <v>0.166666666666667</v>
@@ -1648,22 +1654,22 @@
         <v>0.008</v>
       </c>
       <c r="K16">
-        <v>0.0001850303951367</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>-0.0001580716800845</v>
       </c>
       <c r="M16">
-        <v>0.0004700772200772</v>
+        <v>0.0001969002695417</v>
       </c>
       <c r="N16">
-        <v>2.31287993920972</v>
+        <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q16">
         <v>1870622</v>
@@ -1672,19 +1678,19 @@
         <v>5506602</v>
       </c>
       <c r="S16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1704,37 +1710,37 @@
         <v>36</v>
       </c>
       <c r="F17">
-        <v>0.623976434817871</v>
+        <v>0.901176345829773</v>
       </c>
       <c r="G17">
         <v>0.0263157894736842</v>
       </c>
       <c r="H17">
-        <v>0.789473684210526</v>
+        <v>0.771929824561403</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17">
-        <v>285</v>
+        <v>276.6</v>
       </c>
       <c r="K17">
-        <v>-2.87008882815169</v>
+        <v>-9.73433226651149</v>
       </c>
       <c r="L17">
-        <v>-18.2693725414965</v>
+        <v>-25.6268519883679</v>
       </c>
       <c r="M17">
-        <v>12.1715999968802</v>
+        <v>2.31278355608582</v>
       </c>
       <c r="N17">
-        <v>-1.00704871163217</v>
+        <v>-3.51928136894848</v>
       </c>
       <c r="O17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q17">
         <v>1870622</v>
@@ -1743,19 +1749,19 @@
         <v>5506602</v>
       </c>
       <c r="S17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1772,16 +1778,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F18">
-        <v>0.0045215174079729</v>
+        <v>0.056922100025302</v>
       </c>
       <c r="G18">
-        <v>0.514018691588785</v>
+        <v>0.513761467889908</v>
       </c>
       <c r="H18">
-        <v>0.560747663551402</v>
+        <v>0.559633027522936</v>
       </c>
       <c r="I18">
         <v>15</v>
@@ -1790,22 +1796,22 @@
         <v>0.008781357832593701</v>
       </c>
       <c r="K18">
-        <v>0.0004580845143853</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0011443344376476</v>
+        <v>0.0006611820949171</v>
       </c>
       <c r="N18">
-        <v>5.21655674575881</v>
+        <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P18" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="Q18">
         <v>1870622</v>
@@ -1814,19 +1820,19 @@
         <v>5506602</v>
       </c>
       <c r="S18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1843,13 +1849,13 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F19">
-        <v>0.0210594205757536</v>
+        <v>0.452423518019076</v>
       </c>
       <c r="G19">
-        <v>0.254385964912281</v>
+        <v>0.315789473684211</v>
       </c>
       <c r="H19">
         <v>0.105263157894737</v>
@@ -1858,7 +1864,7 @@
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.003</v>
+        <v>0.0035</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1867,16 +1873,16 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0002496582365003</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q19">
         <v>1870622</v>
@@ -1885,19 +1891,19 @@
         <v>5506602</v>
       </c>
       <c r="S19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1914,16 +1920,16 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20">
-        <v>0.0014646471062618</v>
+        <v>0.0815572230147768</v>
       </c>
       <c r="G20">
-        <v>0.298245614035088</v>
+        <v>0.289473684210526</v>
       </c>
       <c r="H20">
-        <v>0.614035087719298</v>
+        <v>0.587719298245614</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1932,22 +1938,22 @@
         <v>0.0475</v>
       </c>
       <c r="K20">
-        <v>0.0012474594776182</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.0047799643945458</v>
+        <v>0.0023058116895796</v>
       </c>
       <c r="N20">
-        <v>2.62623047919623</v>
+        <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P20" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="Q20">
         <v>1870622</v>
@@ -1956,19 +1962,19 @@
         <v>5506602</v>
       </c>
       <c r="S20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1988,37 +1994,37 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>0.033843830155458</v>
+        <v>0.034623470733942</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.504504504504504</v>
+        <v>0.495575221238938</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.140000000000001</v>
+        <v>8.16</v>
       </c>
       <c r="K21">
-        <v>-0.0124829118250173</v>
+        <v>-0.0124531906063862</v>
       </c>
       <c r="L21">
-        <v>-0.0259676205698289</v>
+        <v>-0.0245836858761561</v>
       </c>
       <c r="M21">
-        <v>-0.0014708732955955</v>
+        <v>-0.0008211193758178</v>
       </c>
       <c r="N21">
-        <v>-0.153352725123062</v>
+        <v>-0.152612629980223</v>
       </c>
       <c r="O21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P21" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="Q21">
         <v>1870622</v>
@@ -2027,16 +2033,16 @@
         <v>5506602</v>
       </c>
       <c r="S21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2053,16 +2059,16 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F22">
-        <v>0.0002589401245766</v>
+        <v>0.058092995080956</v>
       </c>
       <c r="G22">
-        <v>0.105263157894737</v>
+        <v>0.140350877192982</v>
       </c>
       <c r="H22">
-        <v>0.473684210526316</v>
+        <v>0.37719298245614</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -2071,22 +2077,22 @@
         <v>0.06</v>
       </c>
       <c r="K22">
-        <v>0.0049538602846498</v>
+        <v>0.0020695264483073</v>
       </c>
       <c r="L22">
-        <v>0.0018938646942355</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.009762332056305599</v>
+        <v>0.0050171703296703</v>
       </c>
       <c r="N22">
-        <v>8.256433807749749</v>
+        <v>3.44921074717888</v>
       </c>
       <c r="O22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P22" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="Q22">
         <v>1870622</v>
@@ -2095,19 +2101,19 @@
         <v>5506602</v>
       </c>
       <c r="S22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V22" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W22" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2127,13 +2133,13 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.0094407259817947</v>
+        <v>0.188101296412115</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.614035087719298</v>
+        <v>0.552631578947368</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2142,22 +2148,22 @@
         <v>0.5</v>
       </c>
       <c r="K23">
-        <v>0.0117322425334571</v>
+        <v>0.0044917858973152</v>
       </c>
       <c r="L23">
-        <v>0.0034839351251584</v>
+        <v>-0.0059283934494311</v>
       </c>
       <c r="M23">
-        <v>0.0250587763750492</v>
+        <v>0.0125429258241758</v>
       </c>
       <c r="N23">
-        <v>2.34644850669143</v>
+        <v>0.8983571794630441</v>
       </c>
       <c r="O23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P23" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="Q23">
         <v>1870622</v>
@@ -2166,19 +2172,19 @@
         <v>5506602</v>
       </c>
       <c r="S23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V23" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2192,19 +2198,19 @@
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F24">
-        <v>0.435785140515918</v>
+        <v>0.5</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.640350877192982</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2213,19 +2219,19 @@
         <v>0.0465</v>
       </c>
       <c r="K24">
-        <v>0.0001224849094567</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>-0.0011101823708206</v>
+        <v>-0.0012530069726804</v>
       </c>
       <c r="M24">
-        <v>0.0017772876871081</v>
+        <v>0.0016394231122074</v>
       </c>
       <c r="N24">
-        <v>0.263408407433851</v>
+        <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P24" t="s">
         <v>42</v>
@@ -2237,19 +2243,19 @@
         <v>5506602</v>
       </c>
       <c r="S24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2269,37 +2275,37 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.771760274694981</v>
+        <v>0.870925005887627</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.973684210526316</v>
+        <v>0.9649122807017541</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>17.7</v>
+        <v>16.75</v>
       </c>
       <c r="K25">
-        <v>-0.155346840827307</v>
+        <v>-0.179576307595039</v>
       </c>
       <c r="L25">
-        <v>-0.597329212003825</v>
+        <v>-0.611722893359112</v>
       </c>
       <c r="M25">
-        <v>0.141781882181091</v>
+        <v>0.0607867093276929</v>
       </c>
       <c r="N25">
-        <v>-0.877665767385914</v>
+        <v>-1.07209735877635</v>
       </c>
       <c r="O25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q25">
         <v>1870622</v>
@@ -2308,19 +2314,19 @@
         <v>5506602</v>
       </c>
       <c r="S25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2340,37 +2346,37 @@
         <v>36</v>
       </c>
       <c r="F26">
-        <v>0.673796236566056</v>
+        <v>0.4920046135047</v>
       </c>
       <c r="G26">
-        <v>0.0857142857142857</v>
+        <v>0.0845070422535211</v>
       </c>
       <c r="H26">
-        <v>0.471428571428571</v>
+        <v>0.471830985915493</v>
       </c>
       <c r="I26">
         <v>3</v>
       </c>
       <c r="J26">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="K26">
-        <v>0.0033234758871701</v>
+        <v>-0.0008335235052487001</v>
       </c>
       <c r="L26">
-        <v>-0.0100005506259349</v>
+        <v>-0.0101123035419794</v>
       </c>
       <c r="M26">
-        <v>0.0199866037926137</v>
+        <v>0.0120964578316563</v>
       </c>
       <c r="N26">
-        <v>0.830868971792537</v>
+        <v>-0.238149572928213</v>
       </c>
       <c r="O26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q26">
         <v>1870622</v>
@@ -2379,19 +2385,19 @@
         <v>5506602</v>
       </c>
       <c r="S26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U26" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V26" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2411,37 +2417,37 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <v>0.0040150016997729</v>
+        <v>0.141259500568021</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.84</v>
+        <v>0.8216560509554141</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>10.29</v>
+        <v>10.26</v>
       </c>
       <c r="K27">
-        <v>-0.0462734936361871</v>
+        <v>-0.01355516194332</v>
       </c>
       <c r="L27">
-        <v>-0.081207845608506</v>
+        <v>-0.0446395299754613</v>
       </c>
       <c r="M27">
-        <v>-0.0138162259496281</v>
+        <v>0.0094278384728196</v>
       </c>
       <c r="N27">
-        <v>-0.449693815706385</v>
+        <v>-0.13211658814152</v>
       </c>
       <c r="O27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q27">
         <v>1870622</v>
@@ -2450,19 +2456,19 @@
         <v>5506602</v>
       </c>
       <c r="S27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2479,22 +2485,22 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F28">
-        <v>0.253147256907241</v>
+        <v>0.383646707227251</v>
       </c>
       <c r="G28">
-        <v>0.157894736842105</v>
+        <v>0.169811320754717</v>
       </c>
       <c r="H28">
-        <v>0.144736842105263</v>
+        <v>0.125786163522013</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2503,16 +2509,16 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0.0002490944459654</v>
+        <v>0.0001425644028103</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q28">
         <v>1870622</v>
@@ -2521,19 +2527,19 @@
         <v>5506602</v>
       </c>
       <c r="S28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2553,37 +2559,37 @@
         <v>36</v>
       </c>
       <c r="F29">
-        <v>0.563920666733273</v>
+        <v>0.834635622746533</v>
       </c>
       <c r="G29">
-        <v>0.0197368421052632</v>
+        <v>0.0188679245283019</v>
       </c>
       <c r="H29">
-        <v>0.756578947368421</v>
+        <v>0.754716981132076</v>
       </c>
       <c r="I29">
         <v>2</v>
       </c>
       <c r="J29">
-        <v>297.5</v>
+        <v>280</v>
       </c>
       <c r="K29">
-        <v>-0.718609476811317</v>
+        <v>-4.76281980742779</v>
       </c>
       <c r="L29">
-        <v>-11.143897091013</v>
+        <v>-14.2046577689079</v>
       </c>
       <c r="M29">
-        <v>9.27562347308727</v>
+        <v>3.44856470740706</v>
       </c>
       <c r="N29">
-        <v>-0.24154940397019</v>
+        <v>-1.70100707408135</v>
       </c>
       <c r="O29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q29">
         <v>1870622</v>
@@ -2592,19 +2598,19 @@
         <v>5506602</v>
       </c>
       <c r="S29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V29" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W29" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2621,22 +2627,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F30">
-        <v>0.476743579006025</v>
+        <v>0.703158387296956</v>
       </c>
       <c r="G30">
-        <v>0.465277777777778</v>
+        <v>0.47682119205298</v>
       </c>
       <c r="H30">
-        <v>0.583333333333333</v>
+        <v>0.56953642384106</v>
       </c>
       <c r="I30">
         <v>15</v>
       </c>
       <c r="J30">
-        <v>0.0108382192999467</v>
+        <v>0.0107622296228815</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2651,10 +2657,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q30">
         <v>1870622</v>
@@ -2663,19 +2669,19 @@
         <v>5506602</v>
       </c>
       <c r="S30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T30" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2683,7 +2689,7 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C31">
         <v>15</v>
@@ -2692,40 +2698,40 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F31">
-        <v>0.114490543401897</v>
+        <v>0.162117822595735</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.308176100628931</v>
       </c>
       <c r="H31">
-        <v>0.47972972972973</v>
+        <v>0.0817610062893082</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>8.140000000000001</v>
+        <v>0.003</v>
       </c>
       <c r="K31">
-        <v>-0.0056415670538602</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>-0.0124829118250173</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>0.0018512823502301</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>-0.0693067205633931</v>
+        <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P31" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q31">
         <v>1870622</v>
@@ -2734,16 +2740,19 @@
         <v>5506602</v>
       </c>
       <c r="S31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U31" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V31" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="W31" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2751,7 +2760,7 @@
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C32">
         <v>15</v>
@@ -2760,40 +2769,40 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F32">
-        <v>0.0147542060183276</v>
+        <v>0.07622605846631809</v>
       </c>
       <c r="G32">
-        <v>0.0855263157894737</v>
+        <v>0.314465408805031</v>
       </c>
       <c r="H32">
-        <v>0.559210526315789</v>
+        <v>0.547169811320755</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>0.05</v>
+        <v>0.028</v>
       </c>
       <c r="K32">
-        <v>0.001497949419002</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>0.0003424020899212</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>0.0031765488367637</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>2.9958988380041</v>
+        <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q32">
         <v>1870622</v>
@@ -2802,19 +2811,19 @@
         <v>5506602</v>
       </c>
       <c r="S32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V32" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W32" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2822,7 +2831,7 @@
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33">
         <v>15</v>
@@ -2834,37 +2843,37 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.0147304197497096</v>
+        <v>0.031701937284213</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.552631578947368</v>
+        <v>0.464516129032258</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0.495</v>
+        <v>8.16</v>
       </c>
       <c r="K33">
-        <v>0.0066681880419899</v>
+        <v>-0.0083086897179255</v>
       </c>
       <c r="L33">
-        <v>0.0017631917547917</v>
+        <v>-0.0150034230944774</v>
       </c>
       <c r="M33">
-        <v>0.0123339004912997</v>
+        <v>-0.000815381824947</v>
       </c>
       <c r="N33">
-        <v>1.34710869535151</v>
+        <v>-0.101822177915754</v>
       </c>
       <c r="O33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q33">
         <v>1870622</v>
@@ -2873,18 +2882,15 @@
         <v>5506602</v>
       </c>
       <c r="S33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V33" t="s">
-        <v>53</v>
-      </c>
-      <c r="W33" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2893,7 +2899,7 @@
         <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C34">
         <v>15</v>
@@ -2902,40 +2908,40 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F34">
-        <v>0.0009508854678234</v>
+        <v>0.0840889977239757</v>
       </c>
       <c r="G34">
-        <v>0.006578947368421</v>
+        <v>0.10062893081761</v>
       </c>
       <c r="H34">
-        <v>0.532894736842105</v>
+        <v>0.515723270440252</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34">
-        <v>0.0425</v>
+        <v>0.0447</v>
       </c>
       <c r="K34">
-        <v>0.0014217594394706</v>
+        <v>0.000799671592775</v>
       </c>
       <c r="L34">
-        <v>0.0006136018338455</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>0.0025351032486383</v>
+        <v>0.002107220333359</v>
       </c>
       <c r="N34">
-        <v>3.34531632816615</v>
+        <v>1.78897448048108</v>
       </c>
       <c r="O34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P34" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="Q34">
         <v>1870622</v>
@@ -2944,19 +2950,19 @@
         <v>5506602</v>
       </c>
       <c r="S34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2964,7 +2970,7 @@
         <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C35">
         <v>15</v>
@@ -2976,37 +2982,37 @@
         <v>36</v>
       </c>
       <c r="F35">
-        <v>0.274834708404802</v>
+        <v>0.140959267192226</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.967105263157895</v>
+        <v>0.547169811320755</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>13.85</v>
+        <v>0.5</v>
       </c>
       <c r="K35">
-        <v>0.0699712643678161</v>
+        <v>0.0025005705157462</v>
       </c>
       <c r="L35">
-        <v>-0.15116957908447</v>
+        <v>-0.0024965823650034</v>
       </c>
       <c r="M35">
-        <v>0.497801921999354</v>
+        <v>0.008262463016275401</v>
       </c>
       <c r="N35">
-        <v>0.505207684966181</v>
+        <v>0.500114103149246</v>
       </c>
       <c r="O35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q35">
         <v>1870622</v>
@@ -3015,19 +3021,19 @@
         <v>5506602</v>
       </c>
       <c r="S35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3035,49 +3041,49 @@
         <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C36">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D36" t="b">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F36">
-        <v>0.414954764731929</v>
+        <v>0.019355595043333</v>
       </c>
       <c r="G36">
-        <v>0.168604651162791</v>
+        <v>0.0062893081761006</v>
       </c>
       <c r="H36">
-        <v>0.162790697674419</v>
+        <v>0.540880503144654</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36">
-        <v>0.008999999999999999</v>
+        <v>0.042</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>0.0008181309109009</v>
       </c>
       <c r="L36">
-        <v>-5.04030714533499E-05</v>
+        <v>0.0001883572442724</v>
       </c>
       <c r="M36">
-        <v>0.0001428598261574</v>
+        <v>0.0019259278738345</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>1.94793074024035</v>
       </c>
       <c r="O36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P36" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="Q36">
         <v>1870622</v>
@@ -3086,19 +3092,19 @@
         <v>5506602</v>
       </c>
       <c r="S36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3106,49 +3112,49 @@
         <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C37">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="s">
         <v>36</v>
       </c>
       <c r="F37">
-        <v>0.77483061434307</v>
+        <v>0.730413060258319</v>
       </c>
       <c r="G37">
-        <v>0.0174418604651163</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>0.767441860465116</v>
+        <v>0.962264150943396</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>302.5</v>
+        <v>13.8</v>
       </c>
       <c r="K37">
-        <v>-3.66670153602549</v>
+        <v>-0.08440651260504201</v>
       </c>
       <c r="L37">
-        <v>-12.3474643377723</v>
+        <v>-0.304122310733226</v>
       </c>
       <c r="M37">
-        <v>3.96608291282738</v>
+        <v>0.146907316083519</v>
       </c>
       <c r="N37">
-        <v>-1.21213273918198</v>
+        <v>-0.61164139568871</v>
       </c>
       <c r="O37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q37">
         <v>1870622</v>
@@ -3157,19 +3163,19 @@
         <v>5506602</v>
       </c>
       <c r="S37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W37" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3177,49 +3183,49 @@
         <v>23</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C38">
         <v>20</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F38">
-        <v>0.0627321567378043</v>
+        <v>0.7139646280095721</v>
       </c>
       <c r="G38">
-        <v>0.49390243902439</v>
+        <v>0.113924050632911</v>
       </c>
       <c r="H38">
-        <v>0.554878048780488</v>
+        <v>0.430379746835443</v>
       </c>
       <c r="I38">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J38">
-        <v>0.0102542759295991</v>
+        <v>0.345</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>0.0023584735533223</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>-0.0071282201405152</v>
       </c>
       <c r="M38">
-        <v>0.0001918961350767</v>
+        <v>0.0113863764424092</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>0.683615522702139</v>
       </c>
       <c r="O38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q38">
         <v>1870622</v>
@@ -3228,16 +3234,16 @@
         <v>5506602</v>
       </c>
       <c r="S38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W38" t="s">
         <v>56</v>
@@ -3248,7 +3254,7 @@
         <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C39">
         <v>20</v>
@@ -3257,40 +3263,40 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F39">
-        <v>0.0532248118441597</v>
+        <v>0.730168794666547</v>
       </c>
       <c r="G39">
-        <v>0.104651162790698</v>
+        <v>0.179347826086957</v>
       </c>
       <c r="H39">
-        <v>0.552325581395349</v>
+        <v>0.152173913043478</v>
       </c>
       <c r="I39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J39">
-        <v>0.05</v>
+        <v>0.008</v>
       </c>
       <c r="K39">
-        <v>0.0007201558559268</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>-0.0001667047010497</v>
       </c>
       <c r="M39">
-        <v>0.0016117884464341</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>1.44031171185372</v>
+        <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q39">
         <v>1870622</v>
@@ -3299,19 +3305,19 @@
         <v>5506602</v>
       </c>
       <c r="S39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T39" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="U39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V39" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="W39" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3319,70 +3325,354 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C40">
         <v>20</v>
       </c>
       <c r="D40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="s">
         <v>36</v>
       </c>
       <c r="F40">
-        <v>0.463658792148006</v>
+        <v>0.941599854698711</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>0.016304347826087</v>
       </c>
       <c r="H40">
-        <v>0.970760233918129</v>
+        <v>0.766304347826087</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40">
-        <v>13.9</v>
+        <v>290.2</v>
       </c>
       <c r="K40">
-        <v>0.0070679081963698</v>
+        <v>-6.313974152411</v>
       </c>
       <c r="L40">
-        <v>-0.167021491833191</v>
+        <v>-13.9620443989994</v>
       </c>
       <c r="M40">
-        <v>0.251988919570061</v>
+        <v>0.113412022635828</v>
       </c>
       <c r="N40">
-        <v>0.0508482604055382</v>
+        <v>-2.17573196154755</v>
       </c>
       <c r="O40" t="s">
+        <v>39</v>
+      </c>
+      <c r="P40" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q40">
+        <v>1870622</v>
+      </c>
+      <c r="R40">
+        <v>5506602</v>
+      </c>
+      <c r="S40" t="s">
+        <v>52</v>
+      </c>
+      <c r="T40" t="s">
+        <v>53</v>
+      </c>
+      <c r="U40" t="s">
+        <v>54</v>
+      </c>
+      <c r="V40" t="s">
+        <v>55</v>
+      </c>
+      <c r="W40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
         <v>38</v>
       </c>
-      <c r="P40" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q40">
-        <v>1870622</v>
-      </c>
-      <c r="R40">
-        <v>5506602</v>
-      </c>
-      <c r="S40" t="s">
-        <v>50</v>
-      </c>
-      <c r="T40" t="s">
-        <v>51</v>
-      </c>
-      <c r="U40" t="s">
-        <v>52</v>
-      </c>
-      <c r="V40" t="s">
-        <v>53</v>
-      </c>
-      <c r="W40" t="s">
+      <c r="F41">
+        <v>0.124318160623924</v>
+      </c>
+      <c r="G41">
+        <v>0.505681818181818</v>
+      </c>
+      <c r="H41">
+        <v>0.539772727272727</v>
+      </c>
+      <c r="I41">
+        <v>18</v>
+      </c>
+      <c r="J41">
+        <v>0.009460608986226899</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
+        <v>39</v>
+      </c>
+      <c r="P41" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q41">
+        <v>1870622</v>
+      </c>
+      <c r="R41">
+        <v>5506602</v>
+      </c>
+      <c r="S41" t="s">
+        <v>52</v>
+      </c>
+      <c r="T41" t="s">
+        <v>53</v>
+      </c>
+      <c r="U41" t="s">
+        <v>54</v>
+      </c>
+      <c r="V41" t="s">
+        <v>55</v>
+      </c>
+      <c r="W41" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42">
+        <v>20</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42">
+        <v>0.07467757841378241</v>
+      </c>
+      <c r="G42">
+        <v>0.323529411764706</v>
+      </c>
+      <c r="H42">
+        <v>0.547058823529412</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42">
+        <v>0.0274</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42" t="s">
+        <v>39</v>
+      </c>
+      <c r="P42" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q42">
+        <v>1870622</v>
+      </c>
+      <c r="R42">
+        <v>5506602</v>
+      </c>
+      <c r="S42" t="s">
+        <v>52</v>
+      </c>
+      <c r="T42" t="s">
+        <v>53</v>
+      </c>
+      <c r="U42" t="s">
+        <v>54</v>
+      </c>
+      <c r="V42" t="s">
+        <v>55</v>
+      </c>
+      <c r="W42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43">
+        <v>0.149965766115189</v>
+      </c>
+      <c r="G43">
+        <v>0.119565217391304</v>
+      </c>
+      <c r="H43">
+        <v>0.521739130434783</v>
+      </c>
+      <c r="I43">
+        <v>4</v>
+      </c>
+      <c r="J43">
+        <v>0.04735</v>
+      </c>
+      <c r="K43">
+        <v>0.0003201253222826</v>
+      </c>
+      <c r="L43">
+        <v>-0.0002508585164835</v>
+      </c>
+      <c r="M43">
+        <v>0.0010320107833479</v>
+      </c>
+      <c r="N43">
+        <v>0.67608304600346</v>
+      </c>
+      <c r="O43" t="s">
+        <v>39</v>
+      </c>
+      <c r="P43" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q43">
+        <v>1870622</v>
+      </c>
+      <c r="R43">
+        <v>5506602</v>
+      </c>
+      <c r="S43" t="s">
+        <v>52</v>
+      </c>
+      <c r="T43" t="s">
+        <v>53</v>
+      </c>
+      <c r="U43" t="s">
+        <v>54</v>
+      </c>
+      <c r="V43" t="s">
+        <v>55</v>
+      </c>
+      <c r="W43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44">
+        <v>20</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44">
+        <v>0.695031320751558</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0.956284153005464</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>13</v>
+      </c>
+      <c r="K44">
+        <v>-0.0524282296650718</v>
+      </c>
+      <c r="L44">
+        <v>-0.197137555723885</v>
+      </c>
+      <c r="M44">
+        <v>0.0941174939562372</v>
+      </c>
+      <c r="N44">
+        <v>-0.403294074346706</v>
+      </c>
+      <c r="O44" t="s">
+        <v>39</v>
+      </c>
+      <c r="P44" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q44">
+        <v>1870622</v>
+      </c>
+      <c r="R44">
+        <v>5506602</v>
+      </c>
+      <c r="S44" t="s">
+        <v>52</v>
+      </c>
+      <c r="T44" t="s">
+        <v>53</v>
+      </c>
+      <c r="U44" t="s">
+        <v>54</v>
+      </c>
+      <c r="V44" t="s">
+        <v>55</v>
+      </c>
+      <c r="W44" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
